--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.60286033333333</v>
+        <v>33.84781966666667</v>
       </c>
       <c r="H2">
-        <v>115.808581</v>
+        <v>101.543459</v>
       </c>
       <c r="I2">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707165</v>
       </c>
       <c r="J2">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.787067333333333</v>
+        <v>3.393633333333334</v>
       </c>
       <c r="N2">
-        <v>11.361202</v>
+        <v>10.1809</v>
       </c>
       <c r="O2">
-        <v>0.3088123155238694</v>
+        <v>0.2859025330410084</v>
       </c>
       <c r="P2">
-        <v>0.3088123155238694</v>
+        <v>0.2859025330410084</v>
       </c>
       <c r="Q2">
-        <v>146.1916313415958</v>
+        <v>114.8670890814556</v>
       </c>
       <c r="R2">
-        <v>1315.724682074362</v>
+        <v>1033.8038017331</v>
       </c>
       <c r="S2">
-        <v>0.08184183158432239</v>
+        <v>0.06867900955154616</v>
       </c>
       <c r="T2">
-        <v>0.08184183158432239</v>
+        <v>0.06867900955154614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.60286033333333</v>
+        <v>33.84781966666667</v>
       </c>
       <c r="H3">
-        <v>115.808581</v>
+        <v>101.543459</v>
       </c>
       <c r="I3">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707165</v>
       </c>
       <c r="J3">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.970981</v>
       </c>
       <c r="O3">
-        <v>0.3525682121685818</v>
+        <v>0.3642542726013213</v>
       </c>
       <c r="P3">
-        <v>0.3525682121685817</v>
+        <v>0.3642542726013213</v>
       </c>
       <c r="Q3">
-        <v>166.9056559764401</v>
+        <v>146.3464752625866</v>
       </c>
       <c r="R3">
-        <v>1502.150903787961</v>
+        <v>1317.118277363279</v>
       </c>
       <c r="S3">
-        <v>0.09343807481685878</v>
+        <v>0.08750052824327158</v>
       </c>
       <c r="T3">
-        <v>0.09343807481685877</v>
+        <v>0.08750052824327158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.60286033333333</v>
+        <v>33.84781966666667</v>
       </c>
       <c r="H4">
-        <v>115.808581</v>
+        <v>101.543459</v>
       </c>
       <c r="I4">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707165</v>
       </c>
       <c r="J4">
-        <v>0.2650212684862838</v>
+        <v>0.2402182618707166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.457807</v>
       </c>
       <c r="O4">
-        <v>0.3386194723075489</v>
+        <v>0.3498431943576703</v>
       </c>
       <c r="P4">
-        <v>0.3386194723075489</v>
+        <v>0.3498431943576703</v>
       </c>
       <c r="Q4">
-        <v>160.3023278935408</v>
+        <v>140.5565349260459</v>
       </c>
       <c r="R4">
-        <v>1442.720951041867</v>
+        <v>1265.008814334413</v>
       </c>
       <c r="S4">
-        <v>0.08974136208510265</v>
+        <v>0.08403872407589882</v>
       </c>
       <c r="T4">
-        <v>0.08974136208510265</v>
+        <v>0.08403872407589882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>223.367775</v>
       </c>
       <c r="I5">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="J5">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.787067333333333</v>
+        <v>3.393633333333334</v>
       </c>
       <c r="N5">
-        <v>11.361202</v>
+        <v>10.1809</v>
       </c>
       <c r="O5">
-        <v>0.3088123155238694</v>
+        <v>0.2859025330410084</v>
       </c>
       <c r="P5">
-        <v>0.3088123155238694</v>
+        <v>0.2859025330410084</v>
       </c>
       <c r="Q5">
-        <v>281.9696013406166</v>
+        <v>252.6761089441667</v>
       </c>
       <c r="R5">
-        <v>2537.72641206555</v>
+        <v>2274.0849804975</v>
       </c>
       <c r="S5">
-        <v>0.1578538279725128</v>
+        <v>0.1510749949214613</v>
       </c>
       <c r="T5">
-        <v>0.1578538279725128</v>
+        <v>0.1510749949214613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>223.367775</v>
       </c>
       <c r="I6">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="J6">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.970981</v>
       </c>
       <c r="O6">
-        <v>0.3525682121685818</v>
+        <v>0.3642542726013213</v>
       </c>
       <c r="P6">
-        <v>0.3525682121685817</v>
+        <v>0.3642542726013213</v>
       </c>
       <c r="Q6">
         <v>321.9221295041417</v>
@@ -818,10 +818,10 @@
         <v>2897.299165537275</v>
       </c>
       <c r="S6">
-        <v>0.1802202798091903</v>
+        <v>0.1924771767428587</v>
       </c>
       <c r="T6">
-        <v>0.1802202798091903</v>
+        <v>0.1924771767428587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>223.367775</v>
       </c>
       <c r="I7">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="J7">
-        <v>0.5111642898850374</v>
+        <v>0.5284143281787288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.457807</v>
       </c>
       <c r="O7">
-        <v>0.3386194723075489</v>
+        <v>0.3498431943576703</v>
       </c>
       <c r="P7">
-        <v>0.3386194723075489</v>
+        <v>0.3498431943576703</v>
       </c>
       <c r="Q7">
         <v>309.1858478854916</v>
@@ -880,10 +880,10 @@
         <v>2782.672630969425</v>
       </c>
       <c r="S7">
-        <v>0.1730901821033343</v>
+        <v>0.1848621565144088</v>
       </c>
       <c r="T7">
-        <v>0.1730901821033343</v>
+        <v>0.1848621565144088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>32.60069533333333</v>
       </c>
       <c r="H8">
-        <v>97.80208599999999</v>
+        <v>97.802086</v>
       </c>
       <c r="I8">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="J8">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.787067333333333</v>
+        <v>3.393633333333334</v>
       </c>
       <c r="N8">
-        <v>11.361202</v>
+        <v>10.1809</v>
       </c>
       <c r="O8">
-        <v>0.3088123155238694</v>
+        <v>0.2859025330410084</v>
       </c>
       <c r="P8">
-        <v>0.3088123155238694</v>
+        <v>0.2859025330410084</v>
       </c>
       <c r="Q8">
-        <v>123.4610283408191</v>
+        <v>110.6348063730445</v>
       </c>
       <c r="R8">
-        <v>1111.149255067372</v>
+        <v>995.7132573574002</v>
       </c>
       <c r="S8">
-        <v>0.06911665596703419</v>
+        <v>0.06614852856800101</v>
       </c>
       <c r="T8">
-        <v>0.0691166559670342</v>
+        <v>0.06614852856800101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>32.60069533333333</v>
       </c>
       <c r="H9">
-        <v>97.80208599999999</v>
+        <v>97.802086</v>
       </c>
       <c r="I9">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="J9">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.970981</v>
       </c>
       <c r="O9">
-        <v>0.3525682121685818</v>
+        <v>0.3642542726013213</v>
       </c>
       <c r="P9">
-        <v>0.3525682121685817</v>
+        <v>0.3642542726013213</v>
       </c>
       <c r="Q9">
-        <v>140.9543332518184</v>
+        <v>140.9543332518185</v>
       </c>
       <c r="R9">
         <v>1268.588999266366</v>
       </c>
       <c r="S9">
-        <v>0.07890985754253267</v>
+        <v>0.08427656761519101</v>
       </c>
       <c r="T9">
-        <v>0.07890985754253266</v>
+        <v>0.08427656761519101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>32.60069533333333</v>
       </c>
       <c r="H10">
-        <v>97.80208599999999</v>
+        <v>97.802086</v>
       </c>
       <c r="I10">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="J10">
-        <v>0.2238144416286788</v>
+        <v>0.2313674099505547</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.457807</v>
       </c>
       <c r="O10">
-        <v>0.3386194723075489</v>
+        <v>0.3498431943576703</v>
       </c>
       <c r="P10">
-        <v>0.3386194723075489</v>
+        <v>0.3498431943576703</v>
       </c>
       <c r="Q10">
         <v>135.3777235094891</v>
@@ -1066,10 +1066,10 @@
         <v>1218.399511585402</v>
       </c>
       <c r="S10">
-        <v>0.07578792811911189</v>
+        <v>0.08094231376736269</v>
       </c>
       <c r="T10">
-        <v>0.07578792811911191</v>
+        <v>0.08094231376736269</v>
       </c>
     </row>
   </sheetData>
